--- a/data/trans_orig/Q5412-Edad-trans_orig.xlsx
+++ b/data/trans_orig/Q5412-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{63A53001-5CCC-4389-9314-3A06283AA056}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9534045B-653C-4BF4-BF38-1D745542D29C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A17C403B-871F-40C4-9D3C-9210E738CC73}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2220A545-E3A0-4CBC-AD49-C34B5F34DFE6}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="93">
   <si>
     <t>Población según si es capaz de arreglarse en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -98,55 +98,55 @@
     <t>3,08%</t>
   </si>
   <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
   </si>
   <si>
     <t>4,04%</t>
   </si>
   <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
   </si>
   <si>
     <t>3,63%</t>
   </si>
   <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
   </si>
   <si>
     <t>96,92%</t>
   </si>
   <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
   </si>
   <si>
     <t>95,96%</t>
   </si>
   <si>
-    <t>94,06%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
   </si>
   <si>
     <t>96,37%</t>
   </si>
   <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
   </si>
   <si>
     <t>100%</t>
@@ -161,130 +161,130 @@
     <t>6,25%</t>
   </si>
   <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>91,38%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>89,43%</t>
+  </si>
+  <si>
+    <t>86,96%</t>
+  </si>
+  <si>
+    <t>91,72%</t>
+  </si>
+  <si>
+    <t>91,29%</t>
+  </si>
+  <si>
+    <t>89,5%</t>
+  </si>
+  <si>
+    <t>92,81%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de arreglarse en 2015 (Tasa respuesta: 19,52%)</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
     <t>4,29%</t>
   </si>
   <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>91,43%</t>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>94,6%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
+  </si>
+  <si>
+    <t>90,92%</t>
+  </si>
+  <si>
+    <t>95,11%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>93,15%</t>
   </si>
   <si>
     <t>95,71%</t>
   </si>
   <si>
-    <t>89,43%</t>
-  </si>
-  <si>
-    <t>87,08%</t>
-  </si>
-  <si>
-    <t>91,83%</t>
-  </si>
-  <si>
-    <t>91,29%</t>
-  </si>
-  <si>
-    <t>89,58%</t>
-  </si>
-  <si>
-    <t>92,76%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de arreglarse en 2015 (Tasa respuesta: 19,52%)</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>94,77%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>93,13%</t>
-  </si>
-  <si>
-    <t>90,66%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>93,04%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
-  </si>
-  <si>
     <t>Población según si es capaz de arreglarse en 2023 (Tasa respuesta: 31,26%)</t>
   </si>
   <si>
     <t>4,85%</t>
   </si>
   <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
   </si>
   <si>
     <t>8,82%</t>
   </si>
   <si>
-    <t>6,06%</t>
+    <t>5,67%</t>
   </si>
   <si>
     <t>10,51%</t>
@@ -293,19 +293,16 @@
     <t>7,22%</t>
   </si>
   <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
+    <t>5,72%</t>
   </si>
   <si>
     <t>95,15%</t>
   </si>
   <si>
-    <t>93,68%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
+    <t>93,71%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
   </si>
   <si>
     <t>91,18%</t>
@@ -314,16 +311,13 @@
     <t>89,49%</t>
   </si>
   <si>
-    <t>93,94%</t>
+    <t>94,33%</t>
   </si>
   <si>
     <t>92,78%</t>
   </si>
   <si>
-    <t>91,68%</t>
-  </si>
-  <si>
-    <t>94,26%</t>
+    <t>94,28%</t>
   </si>
 </sst>
 </file>
@@ -735,7 +729,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{008F30DD-D5D9-42E4-89F2-75D8BF4F734E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B68ECEB-AE94-49E5-9F50-8D7B604407C8}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1864,7 +1858,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A7D1029-B42E-468B-88B1-0AFE0CFAC7AB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDD0D0DB-939B-4951-988F-F67CCE546D0B}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2993,7 +2987,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AD8CF74-9D93-4024-932A-ED7CB77042E0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BED2F58C-9A32-46AD-BA80-06816D930BFE}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4122,7 +4116,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74806998-555A-456C-820C-2CE87E30685A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{683590DF-C413-42DC-B662-8A4097B1410F}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4967,7 +4961,7 @@
         <v>84</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>85</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4982,13 +4976,13 @@
         <v>663095</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="H20" s="7">
         <v>1539</v>
@@ -4997,13 +4991,13 @@
         <v>935338</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="M20" s="7">
         <v>2513</v>
@@ -5012,13 +5006,13 @@
         <v>1598433</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5122,7 +5116,7 @@
         <v>84</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>85</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5137,13 +5131,13 @@
         <v>663095</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="H23" s="7">
         <v>1539</v>
@@ -5152,13 +5146,13 @@
         <v>935338</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="M23" s="7">
         <v>2513</v>
@@ -5167,13 +5161,13 @@
         <v>1598433</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/Q5412-Edad-trans_orig.xlsx
+++ b/data/trans_orig/Q5412-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9534045B-653C-4BF4-BF38-1D745542D29C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4F4C5D80-FB0B-480E-B8D4-F2FAD2436C60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2220A545-E3A0-4CBC-AD49-C34B5F34DFE6}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0210A7EC-B1A3-424B-A2B4-FDACF799CF33}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="95">
   <si>
     <t>Población según si es capaz de arreglarse en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -98,55 +98,55 @@
     <t>3,08%</t>
   </si>
   <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
   </si>
   <si>
     <t>4,04%</t>
   </si>
   <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
   </si>
   <si>
     <t>3,63%</t>
   </si>
   <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
   </si>
   <si>
     <t>96,92%</t>
   </si>
   <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
   </si>
   <si>
     <t>95,96%</t>
   </si>
   <si>
-    <t>94,15%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
+    <t>94,38%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
   </si>
   <si>
     <t>96,37%</t>
   </si>
   <si>
-    <t>95,04%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
   </si>
   <si>
     <t>100%</t>
@@ -161,160 +161,166 @@
     <t>6,25%</t>
   </si>
   <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>91,34%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>89,43%</t>
+  </si>
+  <si>
+    <t>87,06%</t>
+  </si>
+  <si>
+    <t>91,63%</t>
+  </si>
+  <si>
+    <t>91,29%</t>
+  </si>
+  <si>
+    <t>89,61%</t>
+  </si>
+  <si>
+    <t>92,9%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de arreglarse en 2016 (Tasa respuesta: 19,52%)</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
     <t>4,3%</t>
   </si>
   <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
+  </si>
+  <si>
+    <t>90,64%</t>
+  </si>
+  <si>
+    <t>95,06%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>93,01%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de arreglarse en 2023 (Tasa respuesta: 31,26%)</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
   </si>
   <si>
     <t>8,28%</t>
   </si>
   <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>91,38%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>89,43%</t>
-  </si>
-  <si>
-    <t>86,96%</t>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>93,71%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>91,18%</t>
+  </si>
+  <si>
+    <t>89,49%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>92,78%</t>
   </si>
   <si>
     <t>91,72%</t>
-  </si>
-  <si>
-    <t>91,29%</t>
-  </si>
-  <si>
-    <t>89,5%</t>
-  </si>
-  <si>
-    <t>92,81%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de arreglarse en 2015 (Tasa respuesta: 19,52%)</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>94,6%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>93,13%</t>
-  </si>
-  <si>
-    <t>90,92%</t>
-  </si>
-  <si>
-    <t>95,11%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>93,15%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de arreglarse en 2023 (Tasa respuesta: 31,26%)</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>95,15%</t>
-  </si>
-  <si>
-    <t>93,71%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>91,18%</t>
-  </si>
-  <si>
-    <t>89,49%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>92,78%</t>
   </si>
   <si>
     <t>94,28%</t>
@@ -729,7 +735,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B68ECEB-AE94-49E5-9F50-8D7B604407C8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31FBD6D4-AD64-496C-A9D3-85398A708187}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1858,7 +1864,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDD0D0DB-939B-4951-988F-F67CCE546D0B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89C8B30C-DC5E-4950-961D-B68A98B31905}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2987,7 +2993,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BED2F58C-9A32-46AD-BA80-06816D930BFE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55A656D2-41A0-414C-9D8E-FD9E7B33A8A3}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4116,7 +4122,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{683590DF-C413-42DC-B662-8A4097B1410F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{010A6305-64D4-4F3D-8A8E-49281FCCF5B3}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4961,7 +4967,7 @@
         <v>84</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>43</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4976,13 +4982,13 @@
         <v>663095</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H20" s="7">
         <v>1539</v>
@@ -4991,13 +4997,13 @@
         <v>935338</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M20" s="7">
         <v>2513</v>
@@ -5006,13 +5012,13 @@
         <v>1598433</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>53</v>
+        <v>93</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5116,7 +5122,7 @@
         <v>84</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>43</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5131,13 +5137,13 @@
         <v>663095</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H23" s="7">
         <v>1539</v>
@@ -5146,13 +5152,13 @@
         <v>935338</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M23" s="7">
         <v>2513</v>
@@ -5161,13 +5167,13 @@
         <v>1598433</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>53</v>
+        <v>93</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/Q5412-Edad-trans_orig.xlsx
+++ b/data/trans_orig/Q5412-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4F4C5D80-FB0B-480E-B8D4-F2FAD2436C60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0E1CCF75-7B09-41BD-BE7D-9ED167FB4007}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0210A7EC-B1A3-424B-A2B4-FDACF799CF33}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2217F4AF-65D6-4983-8852-1C58FE56E3D0}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -98,55 +98,55 @@
     <t>3,08%</t>
   </si>
   <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
   </si>
   <si>
     <t>4,04%</t>
   </si>
   <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
   </si>
   <si>
     <t>3,63%</t>
   </si>
   <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
   </si>
   <si>
     <t>96,92%</t>
   </si>
   <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
   </si>
   <si>
     <t>95,96%</t>
   </si>
   <si>
-    <t>94,38%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
+    <t>94,06%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
   </si>
   <si>
     <t>96,37%</t>
   </si>
   <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
   </si>
   <si>
     <t>100%</t>
@@ -161,55 +161,55 @@
     <t>6,25%</t>
   </si>
   <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
   </si>
   <si>
     <t>10,57%</t>
   </si>
   <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
   </si>
   <si>
     <t>8,71%</t>
   </si>
   <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
   </si>
   <si>
     <t>93,75%</t>
   </si>
   <si>
-    <t>91,34%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
+    <t>91,43%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
   </si>
   <si>
     <t>89,43%</t>
   </si>
   <si>
-    <t>87,06%</t>
-  </si>
-  <si>
-    <t>91,63%</t>
+    <t>87,08%</t>
+  </si>
+  <si>
+    <t>91,83%</t>
   </si>
   <si>
     <t>91,29%</t>
   </si>
   <si>
-    <t>89,61%</t>
-  </si>
-  <si>
-    <t>92,9%</t>
+    <t>89,58%</t>
+  </si>
+  <si>
+    <t>92,76%</t>
   </si>
   <si>
     <t>Población según si es capaz de arreglarse en 2016 (Tasa respuesta: 19,52%)</t>
@@ -218,55 +218,55 @@
     <t>3,69%</t>
   </si>
   <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
   </si>
   <si>
     <t>6,87%</t>
   </si>
   <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
   </si>
   <si>
     <t>5,5%</t>
   </si>
   <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
   </si>
   <si>
     <t>96,31%</t>
   </si>
   <si>
-    <t>94,64%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
+    <t>94,77%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
   </si>
   <si>
     <t>93,13%</t>
   </si>
   <si>
-    <t>90,64%</t>
-  </si>
-  <si>
-    <t>95,06%</t>
+    <t>90,66%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
   </si>
   <si>
     <t>94,5%</t>
   </si>
   <si>
-    <t>93,01%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
+    <t>93,04%</t>
+  </si>
+  <si>
+    <t>95,74%</t>
   </si>
   <si>
     <t>Población según si es capaz de arreglarse en 2023 (Tasa respuesta: 31,26%)</t>
@@ -275,16 +275,16 @@
     <t>4,85%</t>
   </si>
   <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
   </si>
   <si>
     <t>8,82%</t>
   </si>
   <si>
-    <t>5,67%</t>
+    <t>6,06%</t>
   </si>
   <si>
     <t>10,51%</t>
@@ -293,19 +293,19 @@
     <t>7,22%</t>
   </si>
   <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
   </si>
   <si>
     <t>95,15%</t>
   </si>
   <si>
-    <t>93,71%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
+    <t>93,68%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
   </si>
   <si>
     <t>91,18%</t>
@@ -314,16 +314,16 @@
     <t>89,49%</t>
   </si>
   <si>
-    <t>94,33%</t>
+    <t>93,94%</t>
   </si>
   <si>
     <t>92,78%</t>
   </si>
   <si>
-    <t>91,72%</t>
-  </si>
-  <si>
-    <t>94,28%</t>
+    <t>91,68%</t>
+  </si>
+  <si>
+    <t>94,26%</t>
   </si>
 </sst>
 </file>
@@ -735,7 +735,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31FBD6D4-AD64-496C-A9D3-85398A708187}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C78E8338-7381-48A7-8344-EA2EE5F8B5DF}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1864,7 +1864,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89C8B30C-DC5E-4950-961D-B68A98B31905}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A233E44C-E13D-4E05-8DF8-C1507ADE8669}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2993,7 +2993,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55A656D2-41A0-414C-9D8E-FD9E7B33A8A3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5E2DDA2-4109-4E28-88F3-D3012CA573A6}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4122,7 +4122,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{010A6305-64D4-4F3D-8A8E-49281FCCF5B3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDB60ABE-3640-41BC-99CB-B7A90F15CFCE}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/trans_orig/Q5412-Edad-trans_orig.xlsx
+++ b/data/trans_orig/Q5412-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0E1CCF75-7B09-41BD-BE7D-9ED167FB4007}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B3F5DD19-6E51-4517-9E66-B41A4A1504AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2217F4AF-65D6-4983-8852-1C58FE56E3D0}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{C5BB10EA-D23B-42A7-B7D6-7921DA34336C}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="230">
   <si>
     <t>Población según si es capaz de arreglarse en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Con ayuda</t>
@@ -80,19 +80,127 @@
     <t>Sin ayuda</t>
   </si>
   <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>65 y más</t>
+    <t>25-34</t>
+  </si>
+  <si>
+    <t>35-44</t>
+  </si>
+  <si>
+    <t>45-54</t>
+  </si>
+  <si>
+    <t>55-64</t>
+  </si>
+  <si>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>94,78%</t>
+  </si>
+  <si>
+    <t>90,71%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>91,18%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>92,0%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
   </si>
   <si>
     <t>3,08%</t>
@@ -149,15 +257,120 @@
     <t>97,36%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
     <t>Población según si es capaz de arreglarse en 2012 (Tasa respuesta: 18,41%)</t>
   </si>
   <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>94,45%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
+  </si>
+  <si>
+    <t>93,8%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>90,08%</t>
+  </si>
+  <si>
+    <t>85,41%</t>
+  </si>
+  <si>
+    <t>93,59%</t>
+  </si>
+  <si>
+    <t>83,34%</t>
+  </si>
+  <si>
+    <t>78,99%</t>
+  </si>
+  <si>
+    <t>87,12%</t>
+  </si>
+  <si>
+    <t>85,98%</t>
+  </si>
+  <si>
+    <t>82,38%</t>
+  </si>
+  <si>
+    <t>88,53%</t>
+  </si>
+  <si>
     <t>6,25%</t>
   </si>
   <si>
@@ -215,12 +428,105 @@
     <t>Población según si es capaz de arreglarse en 2016 (Tasa respuesta: 19,52%)</t>
   </si>
   <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>96,71%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>93,45%</t>
+  </si>
+  <si>
+    <t>90,04%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>88,22%</t>
+  </si>
+  <si>
+    <t>84,18%</t>
+  </si>
+  <si>
+    <t>91,54%</t>
+  </si>
+  <si>
+    <t>90,26%</t>
+  </si>
+  <si>
+    <t>87,89%</t>
+  </si>
+  <si>
+    <t>92,59%</t>
+  </si>
+  <si>
     <t>3,69%</t>
   </si>
   <si>
-    <t>2,37%</t>
-  </si>
-  <si>
     <t>5,23%</t>
   </si>
   <si>
@@ -233,9 +539,6 @@
     <t>9,34%</t>
   </si>
   <si>
-    <t>5,5%</t>
-  </si>
-  <si>
     <t>4,26%</t>
   </si>
   <si>
@@ -248,9 +551,6 @@
     <t>94,77%</t>
   </si>
   <si>
-    <t>97,63%</t>
-  </si>
-  <si>
     <t>93,13%</t>
   </si>
   <si>
@@ -260,9 +560,6 @@
     <t>95,0%</t>
   </si>
   <si>
-    <t>94,5%</t>
-  </si>
-  <si>
     <t>93,04%</t>
   </si>
   <si>
@@ -272,31 +569,139 @@
     <t>Población según si es capaz de arreglarse en 2023 (Tasa respuesta: 31,26%)</t>
   </si>
   <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>19,86%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>91,04%</t>
+  </si>
+  <si>
+    <t>88,29%</t>
+  </si>
+  <si>
+    <t>93,4%</t>
+  </si>
+  <si>
+    <t>82,69%</t>
+  </si>
+  <si>
+    <t>80,14%</t>
+  </si>
+  <si>
+    <t>85,43%</t>
+  </si>
+  <si>
+    <t>86,02%</t>
+  </si>
+  <si>
+    <t>83,88%</t>
+  </si>
+  <si>
+    <t>87,83%</t>
+  </si>
+  <si>
     <t>4,85%</t>
   </si>
   <si>
-    <t>3,59%</t>
+    <t>3,58%</t>
   </si>
   <si>
     <t>6,32%</t>
   </si>
   <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
   </si>
   <si>
     <t>95,15%</t>
@@ -305,25 +710,25 @@
     <t>93,68%</t>
   </si>
   <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>91,18%</t>
-  </si>
-  <si>
-    <t>89,49%</t>
-  </si>
-  <si>
-    <t>93,94%</t>
-  </si>
-  <si>
-    <t>92,78%</t>
-  </si>
-  <si>
-    <t>91,68%</t>
-  </si>
-  <si>
-    <t>94,26%</t>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>92,09%</t>
+  </si>
+  <si>
+    <t>89,61%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>93,27%</t>
+  </si>
+  <si>
+    <t>91,88%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
   </si>
 </sst>
 </file>
@@ -735,8 +1140,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C78E8338-7381-48A7-8344-EA2EE5F8B5DF}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{951B4696-F9BD-4CD7-8177-0DE75F2326E6}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1538,10 +1943,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="D19" s="7">
-        <v>15469</v>
+        <v>4504</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>18</v>
@@ -1553,10 +1958,10 @@
         <v>20</v>
       </c>
       <c r="H19" s="7">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="I19" s="7">
-        <v>27366</v>
+        <v>8418</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>21</v>
@@ -1568,10 +1973,10 @@
         <v>23</v>
       </c>
       <c r="M19" s="7">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="N19" s="7">
-        <v>42835</v>
+        <v>12922</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>24</v>
@@ -1589,10 +1994,10 @@
         <v>12</v>
       </c>
       <c r="C20" s="7">
-        <v>506</v>
+        <v>298</v>
       </c>
       <c r="D20" s="7">
-        <v>486997</v>
+        <v>288079</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>27</v>
@@ -1604,10 +2009,10 @@
         <v>29</v>
       </c>
       <c r="H20" s="7">
-        <v>635</v>
+        <v>362</v>
       </c>
       <c r="I20" s="7">
-        <v>649476</v>
+        <v>334516</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>30</v>
@@ -1619,10 +2024,10 @@
         <v>32</v>
       </c>
       <c r="M20" s="7">
-        <v>1141</v>
+        <v>660</v>
       </c>
       <c r="N20" s="7">
-        <v>1136473</v>
+        <v>622595</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>33</v>
@@ -1640,10 +2045,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>523</v>
+        <v>303</v>
       </c>
       <c r="D21" s="7">
-        <v>502466</v>
+        <v>292583</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>36</v>
@@ -1655,10 +2060,10 @@
         <v>36</v>
       </c>
       <c r="H21" s="7">
-        <v>661</v>
+        <v>371</v>
       </c>
       <c r="I21" s="7">
-        <v>676842</v>
+        <v>342934</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>36</v>
@@ -1670,10 +2075,10 @@
         <v>36</v>
       </c>
       <c r="M21" s="7">
-        <v>1184</v>
+        <v>674</v>
       </c>
       <c r="N21" s="7">
-        <v>1179308</v>
+        <v>635517</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>36</v>
@@ -1687,55 +2092,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
+        <v>12</v>
+      </c>
+      <c r="D22" s="7">
+        <v>10965</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H22" s="7">
         <v>17</v>
       </c>
-      <c r="D22" s="7">
-        <v>15469</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H22" s="7">
+      <c r="I22" s="7">
+        <v>18948</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="I22" s="7">
-        <v>27366</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>22</v>
-      </c>
       <c r="L22" s="7" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="M22" s="7">
+        <v>29</v>
+      </c>
+      <c r="N22" s="7">
+        <v>29913</v>
+      </c>
+      <c r="O22" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="N22" s="7">
-        <v>42835</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>24</v>
-      </c>
       <c r="P22" s="7" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1744,49 +2149,49 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>506</v>
+        <v>208</v>
       </c>
       <c r="D23" s="7">
-        <v>486997</v>
+        <v>198918</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="H23" s="7">
-        <v>635</v>
+        <v>273</v>
       </c>
       <c r="I23" s="7">
-        <v>649476</v>
+        <v>314960</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M23" s="7">
-        <v>1141</v>
+        <v>481</v>
       </c>
       <c r="N23" s="7">
-        <v>1136473</v>
+        <v>513878</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -1795,63 +2200,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>220</v>
+      </c>
+      <c r="D24" s="7">
+        <v>209883</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H24" s="7">
+        <v>290</v>
+      </c>
+      <c r="I24" s="7">
+        <v>333908</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="M24" s="7">
+        <v>510</v>
+      </c>
+      <c r="N24" s="7">
+        <v>543791</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>17</v>
+      </c>
+      <c r="D25" s="7">
+        <v>15469</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H25" s="7">
+        <v>26</v>
+      </c>
+      <c r="I25" s="7">
+        <v>27366</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="M25" s="7">
+        <v>43</v>
+      </c>
+      <c r="N25" s="7">
+        <v>42835</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="7">
+        <v>506</v>
+      </c>
+      <c r="D26" s="7">
+        <v>486997</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="H26" s="7">
+        <v>635</v>
+      </c>
+      <c r="I26" s="7">
+        <v>649476</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="M26" s="7">
+        <v>1141</v>
+      </c>
+      <c r="N26" s="7">
+        <v>1136473</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>523</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>502466</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H27" s="7">
         <v>661</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>676842</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="M27" s="7">
         <v>1184</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>1179308</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>37</v>
+      <c r="O27" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -1864,8 +2425,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A233E44C-E13D-4E05-8DF8-C1507ADE8669}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{444ECB56-BBFE-4009-B2EB-CD0D57E9E9F5}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1881,7 +2442,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2667,49 +3228,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="D19" s="7">
-        <v>34993</v>
+        <v>10208</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>39</v>
+        <v>74</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="H19" s="7">
-        <v>71</v>
+        <v>14</v>
       </c>
       <c r="I19" s="7">
-        <v>78523</v>
+        <v>13736</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="M19" s="7">
-        <v>102</v>
+        <v>24</v>
       </c>
       <c r="N19" s="7">
-        <v>113516</v>
+        <v>23944</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>46</v>
+        <v>81</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>47</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2718,49 +3279,49 @@
         <v>12</v>
       </c>
       <c r="C20" s="7">
-        <v>473</v>
+        <v>272</v>
       </c>
       <c r="D20" s="7">
-        <v>524644</v>
+        <v>299578</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>48</v>
+        <v>83</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>49</v>
+        <v>84</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="H20" s="7">
-        <v>623</v>
+        <v>330</v>
       </c>
       <c r="I20" s="7">
-        <v>664452</v>
+        <v>340260</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>51</v>
+        <v>86</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="M20" s="7">
-        <v>1096</v>
+        <v>602</v>
       </c>
       <c r="N20" s="7">
-        <v>1189096</v>
+        <v>639838</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>54</v>
+        <v>89</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>56</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2769,10 +3330,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>504</v>
+        <v>282</v>
       </c>
       <c r="D21" s="7">
-        <v>559637</v>
+        <v>309786</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>36</v>
@@ -2784,10 +3345,10 @@
         <v>36</v>
       </c>
       <c r="H21" s="7">
-        <v>694</v>
+        <v>344</v>
       </c>
       <c r="I21" s="7">
-        <v>742975</v>
+        <v>353996</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>36</v>
@@ -2799,10 +3360,10 @@
         <v>36</v>
       </c>
       <c r="M21" s="7">
-        <v>1198</v>
+        <v>626</v>
       </c>
       <c r="N21" s="7">
-        <v>1302612</v>
+        <v>663782</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>36</v>
@@ -2816,55 +3377,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D22" s="7">
-        <v>34993</v>
+        <v>24785</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>39</v>
+        <v>92</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>41</v>
+        <v>94</v>
       </c>
       <c r="H22" s="7">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="I22" s="7">
-        <v>78523</v>
+        <v>64788</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>42</v>
+        <v>95</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>43</v>
+        <v>96</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>44</v>
+        <v>97</v>
       </c>
       <c r="M22" s="7">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="N22" s="7">
-        <v>113516</v>
+        <v>89573</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>45</v>
+        <v>98</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>46</v>
+        <v>99</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>47</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2873,49 +3434,49 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>473</v>
+        <v>201</v>
       </c>
       <c r="D23" s="7">
-        <v>524644</v>
+        <v>225066</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>48</v>
+        <v>101</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>49</v>
+        <v>102</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>50</v>
+        <v>103</v>
       </c>
       <c r="H23" s="7">
-        <v>623</v>
+        <v>293</v>
       </c>
       <c r="I23" s="7">
-        <v>664452</v>
+        <v>324191</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>51</v>
+        <v>104</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>52</v>
+        <v>105</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>53</v>
+        <v>106</v>
       </c>
       <c r="M23" s="7">
-        <v>1096</v>
+        <v>494</v>
       </c>
       <c r="N23" s="7">
-        <v>1189096</v>
+        <v>549257</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>54</v>
+        <v>107</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>55</v>
+        <v>108</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>56</v>
+        <v>109</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2924,63 +3485,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>222</v>
+      </c>
+      <c r="D24" s="7">
+        <v>249851</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H24" s="7">
+        <v>350</v>
+      </c>
+      <c r="I24" s="7">
+        <v>388979</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="M24" s="7">
+        <v>572</v>
+      </c>
+      <c r="N24" s="7">
+        <v>638830</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>31</v>
+      </c>
+      <c r="D25" s="7">
+        <v>34993</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="H25" s="7">
+        <v>71</v>
+      </c>
+      <c r="I25" s="7">
+        <v>78523</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="M25" s="7">
+        <v>102</v>
+      </c>
+      <c r="N25" s="7">
+        <v>113516</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="7">
+        <v>473</v>
+      </c>
+      <c r="D26" s="7">
+        <v>524644</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="H26" s="7">
+        <v>623</v>
+      </c>
+      <c r="I26" s="7">
+        <v>664452</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="M26" s="7">
+        <v>1096</v>
+      </c>
+      <c r="N26" s="7">
+        <v>1189096</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>504</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>559637</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H27" s="7">
         <v>694</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>742975</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="M27" s="7">
         <v>1198</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>1302612</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>37</v>
+      <c r="O27" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2993,8 +3710,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5E2DDA2-4109-4E28-88F3-D3012CA573A6}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B83C227-0EBA-424F-A2C3-F38EBF765662}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3010,7 +3727,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>57</v>
+        <v>128</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3796,49 +4513,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="D19" s="7">
-        <v>21842</v>
+        <v>5016</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>58</v>
+        <v>129</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>59</v>
+        <v>130</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>60</v>
+        <v>131</v>
       </c>
       <c r="H19" s="7">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="I19" s="7">
-        <v>53406</v>
+        <v>6249</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>61</v>
+        <v>132</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>62</v>
+        <v>130</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="M19" s="7">
-        <v>65</v>
+        <v>11</v>
       </c>
       <c r="N19" s="7">
-        <v>75248</v>
+        <v>11264</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>64</v>
+        <v>133</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>65</v>
+        <v>134</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>66</v>
+        <v>135</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3847,49 +4564,49 @@
         <v>12</v>
       </c>
       <c r="C20" s="7">
-        <v>603</v>
+        <v>320</v>
       </c>
       <c r="D20" s="7">
-        <v>569486</v>
+        <v>329314</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>67</v>
+        <v>136</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>68</v>
+        <v>137</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>69</v>
+        <v>138</v>
       </c>
       <c r="H20" s="7">
-        <v>614</v>
+        <v>348</v>
       </c>
       <c r="I20" s="7">
-        <v>724525</v>
+        <v>371513</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>70</v>
+        <v>139</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>72</v>
+        <v>138</v>
       </c>
       <c r="M20" s="7">
-        <v>1217</v>
+        <v>668</v>
       </c>
       <c r="N20" s="7">
-        <v>1294011</v>
+        <v>700828</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>73</v>
+        <v>140</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>74</v>
+        <v>141</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>75</v>
+        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3898,10 +4615,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>627</v>
+        <v>325</v>
       </c>
       <c r="D21" s="7">
-        <v>591328</v>
+        <v>334330</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>36</v>
@@ -3913,10 +4630,10 @@
         <v>36</v>
       </c>
       <c r="H21" s="7">
-        <v>655</v>
+        <v>354</v>
       </c>
       <c r="I21" s="7">
-        <v>777931</v>
+        <v>377762</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>36</v>
@@ -3928,10 +4645,10 @@
         <v>36</v>
       </c>
       <c r="M21" s="7">
-        <v>1282</v>
+        <v>679</v>
       </c>
       <c r="N21" s="7">
-        <v>1369259</v>
+        <v>712092</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>36</v>
@@ -3945,55 +4662,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D22" s="7">
-        <v>21842</v>
+        <v>16826</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>58</v>
+        <v>143</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>59</v>
+        <v>144</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>60</v>
+        <v>145</v>
       </c>
       <c r="H22" s="7">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="I22" s="7">
-        <v>53406</v>
+        <v>47157</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>61</v>
+        <v>146</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>62</v>
+        <v>147</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>63</v>
+        <v>148</v>
       </c>
       <c r="M22" s="7">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="N22" s="7">
-        <v>75248</v>
+        <v>63984</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>64</v>
+        <v>149</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>65</v>
+        <v>150</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>66</v>
+        <v>151</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4002,49 +4719,49 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>603</v>
+        <v>283</v>
       </c>
       <c r="D23" s="7">
-        <v>569486</v>
+        <v>240172</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>67</v>
+        <v>152</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>68</v>
+        <v>153</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>69</v>
+        <v>154</v>
       </c>
       <c r="H23" s="7">
-        <v>614</v>
+        <v>266</v>
       </c>
       <c r="I23" s="7">
-        <v>724525</v>
+        <v>353012</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>70</v>
+        <v>155</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>71</v>
+        <v>156</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>72</v>
+        <v>157</v>
       </c>
       <c r="M23" s="7">
-        <v>1217</v>
+        <v>549</v>
       </c>
       <c r="N23" s="7">
-        <v>1294011</v>
+        <v>593183</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>73</v>
+        <v>158</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>74</v>
+        <v>159</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>75</v>
+        <v>160</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4053,63 +4770,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>302</v>
+      </c>
+      <c r="D24" s="7">
+        <v>256998</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H24" s="7">
+        <v>301</v>
+      </c>
+      <c r="I24" s="7">
+        <v>400169</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="M24" s="7">
+        <v>603</v>
+      </c>
+      <c r="N24" s="7">
+        <v>657167</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>24</v>
+      </c>
+      <c r="D25" s="7">
+        <v>21842</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="H25" s="7">
+        <v>41</v>
+      </c>
+      <c r="I25" s="7">
+        <v>53406</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="M25" s="7">
+        <v>65</v>
+      </c>
+      <c r="N25" s="7">
+        <v>75248</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="7">
+        <v>603</v>
+      </c>
+      <c r="D26" s="7">
+        <v>569486</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="H26" s="7">
+        <v>614</v>
+      </c>
+      <c r="I26" s="7">
+        <v>724525</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="M26" s="7">
+        <v>1217</v>
+      </c>
+      <c r="N26" s="7">
+        <v>1294011</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>627</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>591328</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H27" s="7">
         <v>655</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>777931</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="M27" s="7">
         <v>1282</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>1369259</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>37</v>
+      <c r="O27" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4122,8 +4995,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDB60ABE-3640-41BC-99CB-B7A90F15CFCE}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABC76F07-1B3E-413F-946F-0DFEF67B9A38}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4139,7 +5012,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>76</v>
+        <v>175</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4925,49 +5798,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="D19" s="7">
-        <v>33826</v>
+        <v>6248</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>77</v>
+        <v>176</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>78</v>
+        <v>177</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>79</v>
+        <v>178</v>
       </c>
       <c r="H19" s="7">
-        <v>167</v>
+        <v>16</v>
       </c>
       <c r="I19" s="7">
-        <v>90479</v>
+        <v>8089</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>80</v>
+        <v>179</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>81</v>
+        <v>180</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>82</v>
+        <v>181</v>
       </c>
       <c r="M19" s="7">
-        <v>220</v>
+        <v>26</v>
       </c>
       <c r="N19" s="7">
-        <v>124305</v>
+        <v>14336</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>83</v>
+        <v>182</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>84</v>
+        <v>183</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>85</v>
+        <v>184</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4976,49 +5849,49 @@
         <v>12</v>
       </c>
       <c r="C20" s="7">
-        <v>974</v>
+        <v>560</v>
       </c>
       <c r="D20" s="7">
-        <v>663095</v>
+        <v>361917</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>86</v>
+        <v>185</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>87</v>
+        <v>186</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>88</v>
+        <v>187</v>
       </c>
       <c r="H20" s="7">
-        <v>1539</v>
+        <v>809</v>
       </c>
       <c r="I20" s="7">
-        <v>935338</v>
+        <v>599518</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>89</v>
+        <v>188</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>90</v>
+        <v>189</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>91</v>
+        <v>190</v>
       </c>
       <c r="M20" s="7">
-        <v>2513</v>
+        <v>1369</v>
       </c>
       <c r="N20" s="7">
-        <v>1598433</v>
+        <v>961437</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>92</v>
+        <v>191</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>93</v>
+        <v>192</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>94</v>
+        <v>193</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5027,10 +5900,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>1027</v>
+        <v>570</v>
       </c>
       <c r="D21" s="7">
-        <v>696921</v>
+        <v>368165</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>36</v>
@@ -5042,10 +5915,10 @@
         <v>36</v>
       </c>
       <c r="H21" s="7">
-        <v>1706</v>
+        <v>825</v>
       </c>
       <c r="I21" s="7">
-        <v>1025817</v>
+        <v>607607</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>36</v>
@@ -5057,10 +5930,10 @@
         <v>36</v>
       </c>
       <c r="M21" s="7">
-        <v>2733</v>
+        <v>1395</v>
       </c>
       <c r="N21" s="7">
-        <v>1722738</v>
+        <v>975773</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>36</v>
@@ -5074,55 +5947,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="D22" s="7">
-        <v>33826</v>
+        <v>25257</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>77</v>
+        <v>194</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>78</v>
+        <v>195</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>79</v>
+        <v>196</v>
       </c>
       <c r="H22" s="7">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="I22" s="7">
-        <v>90479</v>
+        <v>73693</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>80</v>
+        <v>197</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>81</v>
+        <v>198</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>82</v>
+        <v>199</v>
       </c>
       <c r="M22" s="7">
-        <v>220</v>
+        <v>194</v>
       </c>
       <c r="N22" s="7">
-        <v>124305</v>
+        <v>98950</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>83</v>
+        <v>200</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>84</v>
+        <v>201</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>85</v>
+        <v>202</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5131,49 +6004,49 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>974</v>
+        <v>414</v>
       </c>
       <c r="D23" s="7">
-        <v>663095</v>
+        <v>256756</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>86</v>
+        <v>203</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>87</v>
+        <v>204</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>88</v>
+        <v>205</v>
       </c>
       <c r="H23" s="7">
-        <v>1539</v>
+        <v>730</v>
       </c>
       <c r="I23" s="7">
-        <v>935338</v>
+        <v>352138</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>89</v>
+        <v>206</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>90</v>
+        <v>207</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>91</v>
+        <v>208</v>
       </c>
       <c r="M23" s="7">
-        <v>2513</v>
+        <v>1144</v>
       </c>
       <c r="N23" s="7">
-        <v>1598433</v>
+        <v>608894</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>92</v>
+        <v>209</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>93</v>
+        <v>210</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>94</v>
+        <v>211</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5182,63 +6055,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>457</v>
+      </c>
+      <c r="D24" s="7">
+        <v>282013</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H24" s="7">
+        <v>881</v>
+      </c>
+      <c r="I24" s="7">
+        <v>425831</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="M24" s="7">
+        <v>1338</v>
+      </c>
+      <c r="N24" s="7">
+        <v>707844</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>53</v>
+      </c>
+      <c r="D25" s="7">
+        <v>31505</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="H25" s="7">
+        <v>167</v>
+      </c>
+      <c r="I25" s="7">
+        <v>81781</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="M25" s="7">
+        <v>220</v>
+      </c>
+      <c r="N25" s="7">
+        <v>113286</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="7">
+        <v>974</v>
+      </c>
+      <c r="D26" s="7">
+        <v>618673</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="H26" s="7">
+        <v>1539</v>
+      </c>
+      <c r="I26" s="7">
+        <v>951657</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="M26" s="7">
+        <v>2513</v>
+      </c>
+      <c r="N26" s="7">
+        <v>1570331</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>1027</v>
       </c>
-      <c r="D24" s="7">
-        <v>696921</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>650178</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H27" s="7">
         <v>1706</v>
       </c>
-      <c r="I24" s="7">
-        <v>1025817</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>1033438</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="M27" s="7">
         <v>2733</v>
       </c>
-      <c r="N24" s="7">
-        <v>1722738</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>37</v>
+      <c r="N27" s="7">
+        <v>1683617</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
